--- a/en/downloads/data-excel/17.13.1.1.xlsx
+++ b/en/downloads/data-excel/17.13.1.1.xlsx
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -265,6 +270,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -572,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +606,7 @@
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -609,7 +626,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -623,7 +640,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -663,8 +680,11 @@
       <c r="M3" s="8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -704,8 +724,9 @@
       <c r="M4" s="14">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -745,8 +766,9 @@
       <c r="M5" s="14">
         <v>101.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -786,8 +808,9 @@
       <c r="M6" s="14">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -827,8 +850,9 @@
       <c r="M7" s="14">
         <v>-431.70920000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -866,8 +890,11 @@
         <v>23747.690011019997</v>
       </c>
       <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="18">
+        <v>407116.85000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -907,8 +934,11 @@
       <c r="M9" s="14">
         <v>97.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="18">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
@@ -948,8 +978,11 @@
       <c r="M10" s="15">
         <v>1986.11</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="19">
+        <v>1973.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -989,8 +1022,11 @@
       <c r="M11" s="16">
         <v>4989.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="20">
+        <v>3718.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1005,7 +1041,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1020,7 +1056,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>

--- a/en/downloads/data-excel/17.13.1.1.xlsx
+++ b/en/downloads/data-excel/17.13.1.1.xlsx
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,11 +175,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -270,18 +265,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -589,24 +572,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="1" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -626,7 +605,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -640,7 +619,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -683,15 +662,24 @@
       <c r="N3" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="8">
+        <v>2021</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="14">
@@ -724,16 +712,27 @@
       <c r="M4" s="14">
         <v>104.6</v>
       </c>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="N4" s="14">
+        <v>92.9</v>
+      </c>
+      <c r="O4" s="14">
+        <v>105.5</v>
+      </c>
+      <c r="P4" s="14">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="14">
@@ -766,16 +765,27 @@
       <c r="M5" s="14">
         <v>101.1</v>
       </c>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="N5" s="14">
+        <v>106.3</v>
+      </c>
+      <c r="O5" s="14">
+        <v>111.90503981851454</v>
+      </c>
+      <c r="P5" s="14">
+        <v>113.92290931741762</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="14">
@@ -806,11 +816,22 @@
         <v>101.49</v>
       </c>
       <c r="M6" s="14">
-        <v>104.1</v>
-      </c>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+        <v>104.26</v>
+      </c>
+      <c r="N6" s="14">
+        <v>121.27</v>
+      </c>
+      <c r="O6" s="14">
+        <v>111.5</v>
+      </c>
+      <c r="P6" s="14">
+        <v>105.1</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>109.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -850,9 +871,18 @@
       <c r="M7" s="14">
         <v>-431.70920000000001</v>
       </c>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="14">
+        <v>-19734.036599999999</v>
+      </c>
+      <c r="O7" s="14">
+        <v>-1763.6</v>
+      </c>
+      <c r="P7" s="14">
+        <v>-10400.700000000001</v>
+      </c>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -889,16 +919,25 @@
       <c r="L8" s="14">
         <v>23747.690011019997</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="18">
+      <c r="M8" s="14">
+        <v>319474.59999999998</v>
+      </c>
+      <c r="N8" s="14">
         <v>407116.85000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="14">
+        <v>436586.8</v>
+      </c>
+      <c r="P8" s="14">
+        <v>477967.8</v>
+      </c>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -934,11 +973,18 @@
       <c r="M9" s="14">
         <v>97.8</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="14">
         <v>81.599999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="14">
+        <v>146.4</v>
+      </c>
+      <c r="P9" s="14">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
@@ -978,11 +1024,18 @@
       <c r="M10" s="15">
         <v>1986.11</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="15">
         <v>1973.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="15">
+        <v>2752.1</v>
+      </c>
+      <c r="P10" s="15">
+        <v>2254.6999999999998</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1022,11 +1075,18 @@
       <c r="M11" s="16">
         <v>4989.01</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="16">
         <v>3718.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="16">
+        <v>5580.2</v>
+      </c>
+      <c r="P11" s="16">
+        <v>9803.2000000000007</v>
+      </c>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1041,7 +1101,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1056,7 +1116,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>

--- a/en/downloads/data-excel/17.13.1.1.xlsx
+++ b/en/downloads/data-excel/17.13.1.1.xlsx
@@ -578,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="37.42578125" customWidth="1"/>
+    <col min="1" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="11" width="10.140625" bestFit="1" customWidth="1"/>
@@ -672,7 +672,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -722,10 +722,10 @@
         <v>109</v>
       </c>
       <c r="Q4" s="14">
-        <v>106.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -778,7 +778,7 @@
         <v>110.8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -831,7 +831,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -880,9 +880,11 @@
       <c r="P7" s="14">
         <v>-10400.700000000001</v>
       </c>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="14">
+        <v>12685.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -929,9 +931,11 @@
         <v>436586.8</v>
       </c>
       <c r="P8" s="14">
-        <v>477967.8</v>
-      </c>
-      <c r="Q8" s="14"/>
+        <v>478225.6</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>559503.6</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -982,9 +986,11 @@
       <c r="P9" s="14">
         <v>144.69999999999999</v>
       </c>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="14">
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1033,9 +1039,11 @@
       <c r="P10" s="15">
         <v>2254.6999999999998</v>
       </c>
-      <c r="Q10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="15">
+        <v>3384.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +1092,9 @@
       <c r="P11" s="16">
         <v>9803.2000000000007</v>
       </c>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="16">
+        <v>12517.9</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
